--- a/xlsx-templates/cost-13.xlsx
+++ b/xlsx-templates/cost-13.xlsx
@@ -1529,6 +1529,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1551,9 +1554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1673,12 +1673,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1718,11 +1712,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1730,15 +1739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,18 +1748,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1774,24 +1792,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2222,17 +2222,17 @@
     <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2245,38 +2245,38 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2290,10 +2290,10 @@
       <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="74" t="s">
         <v>71</v>
       </c>
@@ -2305,8 +2305,8 @@
       <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
@@ -2316,8 +2316,8 @@
       <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -2327,123 +2327,118 @@
       <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C16:I16"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2460,6 +2455,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2979,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="159" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -3012,51 +3012,51 @@
       <c r="O1" s="82"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="151"/>
+      <c r="O3" s="144"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="140"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="58" t="s">
         <v>124</v>
       </c>
@@ -3084,8 +3084,8 @@
       <c r="M4" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="150"/>
-      <c r="O4" s="139"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="145"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57"/>
@@ -3100,8 +3100,8 @@
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="139"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="145"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
@@ -3116,8 +3116,8 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="139"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="145"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
@@ -3132,8 +3132,8 @@
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="139"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="145"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="57"/>
@@ -3148,8 +3148,8 @@
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="139"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="145"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
@@ -3164,8 +3164,8 @@
       <c r="K9" s="58"/>
       <c r="L9" s="58"/>
       <c r="M9" s="58"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="139"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="145"/>
     </row>
     <row r="10" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
@@ -3180,8 +3180,8 @@
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
       <c r="M10" s="58"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="139"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="145"/>
     </row>
     <row r="11" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="57"/>
@@ -3196,8 +3196,8 @@
       <c r="K11" s="58"/>
       <c r="L11" s="58"/>
       <c r="M11" s="58"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="139"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="145"/>
     </row>
     <row r="12" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
@@ -3212,8 +3212,8 @@
       <c r="K12" s="58"/>
       <c r="L12" s="58"/>
       <c r="M12" s="58"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="139"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="145"/>
     </row>
     <row r="13" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
@@ -3228,8 +3228,8 @@
       <c r="K13" s="58"/>
       <c r="L13" s="58"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="139"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="145"/>
     </row>
     <row r="14" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="57"/>
@@ -3244,8 +3244,8 @@
       <c r="K14" s="58"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="139"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="145"/>
     </row>
     <row r="15" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="57"/>
@@ -3260,8 +3260,8 @@
       <c r="K15" s="58"/>
       <c r="L15" s="58"/>
       <c r="M15" s="58"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="139"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="145"/>
     </row>
     <row r="16" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
@@ -3276,8 +3276,8 @@
       <c r="K16" s="58"/>
       <c r="L16" s="58"/>
       <c r="M16" s="58"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="139"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="145"/>
     </row>
     <row r="17" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="57"/>
@@ -3292,14 +3292,14 @@
       <c r="K17" s="58"/>
       <c r="L17" s="58"/>
       <c r="M17" s="58"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="139"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="145"/>
     </row>
     <row r="18" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="60"/>
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
@@ -3310,71 +3310,71 @@
       <c r="K18" s="58"/>
       <c r="L18" s="58"/>
       <c r="M18" s="58"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="139"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="145"/>
     </row>
     <row r="19" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61" t="s">
         <v>134</v>
       </c>
       <c r="C19" s="58"/>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="138" t="s">
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="O19" s="139"/>
+      <c r="O19" s="145"/>
     </row>
     <row r="20" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="147" t="s">
         <v>137</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="144"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="150"/>
     </row>
     <row r="21" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="141"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="62"/>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="139"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="145"/>
     </row>
     <row r="22" spans="2:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="142"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="56"/>
       <c r="D22" s="93" t="s">
         <v>140</v>
@@ -3389,10 +3389,17 @@
       <c r="L22" s="93"/>
       <c r="M22" s="93"/>
       <c r="N22" s="93"/>
-      <c r="O22" s="145"/>
+      <c r="O22" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D21:O21"/>
+    <mergeCell ref="D22:O22"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -3401,13 +3408,6 @@
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="N3:N18"/>
     <mergeCell ref="O3:O18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D21:O21"/>
-    <mergeCell ref="D22:O22"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>
@@ -4117,38 +4117,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
@@ -4238,84 +4238,75 @@
       <c r="M7" s="111"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="114" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="119"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="126"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="126"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="125"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="F7:G7"/>
@@ -4332,8 +4323,17 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4522,6 +4522,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
@@ -4538,10 +4542,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4568,26 +4568,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4595,14 +4595,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4610,14 +4610,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4625,14 +4625,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4640,14 +4640,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4655,32 +4655,27 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -4688,6 +4683,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4715,26 +4715,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4742,14 +4742,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4757,14 +4757,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4772,14 +4772,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4787,14 +4787,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4802,52 +4802,47 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A8:B8"/>
@@ -4859,6 +4854,11 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
